--- a/regions/6/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/6/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F395A68-1DF7-40F7-856E-07CC52C16695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>საწარმოთა ბრუნვა იმერეთის რეგიონში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -44,13 +42,16 @@
   <si>
     <t>დასაქმებულთა შრომის საშუალოთვიური ანაზღაურება იმერეთის რეგიონში, საკუთრების ფორმების მიხედვით, ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -141,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -158,16 +159,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -179,10 +180,16 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,6 +280,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -497,17 +538,17 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -554,10 +595,16 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8">
         <v>661.1</v>
@@ -604,10 +651,16 @@
       <c r="P6" s="9">
         <v>4311.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9">
+        <v>6512.8700312441997</v>
+      </c>
+      <c r="R6" s="9">
+        <v>7951.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="10">
         <v>415.1</v>
@@ -654,10 +707,16 @@
       <c r="P7" s="10">
         <v>3302.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q7" s="10">
+        <v>4652.3252059547513</v>
+      </c>
+      <c r="R7" s="10">
+        <v>5587.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="10">
         <v>156.69999999999999</v>
@@ -704,10 +763,16 @@
       <c r="P8" s="10">
         <v>991.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="10">
+        <v>1818.5008548752528</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2331.3000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="10">
         <v>89.2</v>
@@ -754,16 +819,22 @@
       <c r="P9" s="10">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>42.043970414195606</v>
+      </c>
+      <c r="R9" s="10">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -810,10 +881,16 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="8">
         <v>418.1</v>
@@ -860,10 +937,16 @@
       <c r="P14" s="9">
         <v>2772.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9">
+        <v>4229.7468014669994</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5112.3999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="10">
         <v>164.6</v>
@@ -910,10 +993,16 @@
       <c r="P15" s="10">
         <v>1715.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q15" s="10">
+        <v>2776.4233784009989</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3438.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="10">
         <v>176.9</v>
@@ -960,10 +1049,16 @@
       <c r="P16" s="10">
         <v>1027</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="10">
+        <v>1382.1600514590002</v>
+      </c>
+      <c r="R16" s="10">
+        <v>1623.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10">
         <v>76.599999999999994</v>
@@ -1010,13 +1105,19 @@
       <c r="P17" s="10">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="10">
+        <v>71.163371606999988</v>
+      </c>
+      <c r="R17" s="10">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1063,10 +1164,16 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="12">
         <v>37371</v>
@@ -1110,13 +1217,19 @@
       <c r="O22" s="12">
         <v>58015</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="12">
         <v>52960.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>58405.528456834007</v>
+      </c>
+      <c r="R22" s="15">
+        <v>59446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="13">
         <v>20555</v>
@@ -1160,13 +1273,19 @@
       <c r="O23" s="14">
         <v>46830</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="14">
         <v>41760.300000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q23" s="14">
+        <v>48602.082948390002</v>
+      </c>
+      <c r="R23" s="16">
+        <v>50336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="13">
         <v>3356</v>
@@ -1210,13 +1329,19 @@
       <c r="O24" s="14">
         <v>8602</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="14">
         <v>9611.2000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="14">
+        <v>7114.7635558219999</v>
+      </c>
+      <c r="R24" s="16">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="13">
         <v>13460</v>
@@ -1260,16 +1385,22 @@
       <c r="O25" s="14">
         <v>2583</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="14">
         <v>1589</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q25" s="14">
+        <v>2688.6819526219997</v>
+      </c>
+      <c r="R25" s="16">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1316,10 +1447,16 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="8">
         <v>165.4</v>
@@ -1366,10 +1503,16 @@
       <c r="P30" s="9">
         <v>929.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q30" s="9">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="10">
         <v>147.19999999999999</v>
@@ -1416,10 +1559,16 @@
       <c r="P31" s="10">
         <v>806.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q31" s="10">
+        <v>874.9</v>
+      </c>
+      <c r="R31" s="10">
+        <v>1128.5999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="10">
         <v>250.9</v>
@@ -1466,10 +1615,16 @@
       <c r="P32" s="10">
         <v>1373</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="10">
+        <v>2007.8</v>
+      </c>
+      <c r="R32" s="10">
+        <v>2334.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="10">
         <v>166.9</v>
@@ -1515,6 +1670,12 @@
       </c>
       <c r="P33" s="10">
         <v>835.7</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>961.4</v>
+      </c>
+      <c r="R33" s="10">
+        <v>981.1</v>
       </c>
     </row>
   </sheetData>
